--- a/marks2.xlsx
+++ b/marks2.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E17470E-0179-419D-87A9-FB6AC93CFC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D393A4-06DB-43CC-AC03-353FEDEAE2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B0923A3-3B8E-462B-9717-855AF849A337}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="6B" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -830,7 +830,7 @@
   <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/marks2.xlsx
+++ b/marks2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D393A4-06DB-43CC-AC03-353FEDEAE2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F3D6B7-3FA5-461B-95D4-E1BDCE265B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B0923A3-3B8E-462B-9717-855AF849A337}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="142">
   <si>
     <t>Sl.no</t>
   </si>
@@ -830,7 +830,7 @@
   <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="1">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="1">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1">
@@ -1389,8 +1389,8 @@
         <v>81</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>70</v>
+      <c r="E14" s="1">
+        <v>39</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1">
@@ -1936,7 +1936,7 @@
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1">
@@ -2404,7 +2404,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="1">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="1">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="1">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="1">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1">
@@ -2755,7 +2755,7 @@
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1">
@@ -2989,7 +2989,7 @@
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1">
@@ -3067,7 +3067,7 @@
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="1">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1">
